--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.94643366666666</v>
+        <v>0.6244246666666666</v>
       </c>
       <c r="H2">
-        <v>236.839301</v>
+        <v>1.873274</v>
       </c>
       <c r="I2">
-        <v>0.8231230137654455</v>
+        <v>0.1217547960993207</v>
       </c>
       <c r="J2">
-        <v>0.8231230137654454</v>
+        <v>0.1217547960993207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.807091</v>
+        <v>4.685980666666667</v>
       </c>
       <c r="N2">
-        <v>23.421273</v>
+        <v>14.057942</v>
       </c>
       <c r="O2">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="P2">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="Q2">
-        <v>616.3419917611303</v>
+        <v>2.926041915789777</v>
       </c>
       <c r="R2">
-        <v>5547.077925850173</v>
+        <v>26.334377242108</v>
       </c>
       <c r="S2">
-        <v>0.2579113553181389</v>
+        <v>0.02526999263001541</v>
       </c>
       <c r="T2">
-        <v>0.2579113553181389</v>
+        <v>0.02526999263001541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.94643366666666</v>
+        <v>0.6244246666666666</v>
       </c>
       <c r="H3">
-        <v>236.839301</v>
+        <v>1.873274</v>
       </c>
       <c r="I3">
-        <v>0.8231230137654455</v>
+        <v>0.1217547960993207</v>
       </c>
       <c r="J3">
-        <v>0.8231230137654454</v>
+        <v>0.1217547960993207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.101943</v>
       </c>
       <c r="O3">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="P3">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="Q3">
-        <v>1002.670838540205</v>
+        <v>7.930597685709111</v>
       </c>
       <c r="R3">
-        <v>9024.037546861842</v>
+        <v>71.37537917138199</v>
       </c>
       <c r="S3">
-        <v>0.4195725723099882</v>
+        <v>0.06849052434554553</v>
       </c>
       <c r="T3">
-        <v>0.4195725723099882</v>
+        <v>0.06849052434554553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.94643366666666</v>
+        <v>0.6244246666666666</v>
       </c>
       <c r="H4">
-        <v>236.839301</v>
+        <v>1.873274</v>
       </c>
       <c r="I4">
-        <v>0.8231230137654455</v>
+        <v>0.1217547960993207</v>
       </c>
       <c r="J4">
-        <v>0.8231230137654454</v>
+        <v>0.1217547960993207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.408559666666666</v>
+        <v>5.191163</v>
       </c>
       <c r="N4">
-        <v>13.225679</v>
+        <v>15.573489</v>
       </c>
       <c r="O4">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="P4">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="Q4">
-        <v>348.040063290042</v>
+        <v>3.241490225887333</v>
       </c>
       <c r="R4">
-        <v>3132.360569610379</v>
+        <v>29.173412032986</v>
       </c>
       <c r="S4">
-        <v>0.1456390861373183</v>
+        <v>0.02799427912375979</v>
       </c>
       <c r="T4">
-        <v>0.1456390861373183</v>
+        <v>0.02799427912375979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.569858333333334</v>
+        <v>3.569858333333333</v>
       </c>
       <c r="H5">
         <v>10.709575</v>
       </c>
       <c r="I5">
-        <v>0.03722058633396774</v>
+        <v>0.6960765592408708</v>
       </c>
       <c r="J5">
-        <v>0.03722058633396774</v>
+        <v>0.6960765592408706</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.807091</v>
+        <v>4.685980666666667</v>
       </c>
       <c r="N5">
-        <v>23.421273</v>
+        <v>14.057942</v>
       </c>
       <c r="O5">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="P5">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="Q5">
-        <v>27.87020886544167</v>
+        <v>16.72828713273889</v>
       </c>
       <c r="R5">
-        <v>250.831879788975</v>
+        <v>150.55458419465</v>
       </c>
       <c r="S5">
-        <v>0.01166242676561209</v>
+        <v>0.1444694589903011</v>
       </c>
       <c r="T5">
-        <v>0.01166242676561209</v>
+        <v>0.1444694589903011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.569858333333334</v>
+        <v>3.569858333333333</v>
       </c>
       <c r="H6">
         <v>10.709575</v>
       </c>
       <c r="I6">
-        <v>0.03722058633396774</v>
+        <v>0.6960765592408708</v>
       </c>
       <c r="J6">
-        <v>0.03722058633396774</v>
+        <v>0.6960765592408706</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>38.101943</v>
       </c>
       <c r="O6">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="P6">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="Q6">
-        <v>45.33951291158056</v>
+        <v>45.33951291158055</v>
       </c>
       <c r="R6">
         <v>408.055616204225</v>
       </c>
       <c r="S6">
-        <v>0.01897254345931693</v>
+        <v>0.391562797149774</v>
       </c>
       <c r="T6">
-        <v>0.01897254345931693</v>
+        <v>0.391562797149774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.569858333333334</v>
+        <v>3.569858333333333</v>
       </c>
       <c r="H7">
         <v>10.709575</v>
       </c>
       <c r="I7">
-        <v>0.03722058633396774</v>
+        <v>0.6960765592408708</v>
       </c>
       <c r="J7">
-        <v>0.03722058633396774</v>
+        <v>0.6960765592408706</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.408559666666666</v>
+        <v>5.191163</v>
       </c>
       <c r="N7">
-        <v>13.225679</v>
+        <v>15.573489</v>
       </c>
       <c r="O7">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="P7">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="Q7">
-        <v>15.73793346404722</v>
+        <v>18.53171649524166</v>
       </c>
       <c r="R7">
-        <v>141.641401176425</v>
+        <v>166.785448457175</v>
       </c>
       <c r="S7">
-        <v>0.006585616109038723</v>
+        <v>0.1600443031007956</v>
       </c>
       <c r="T7">
-        <v>0.006585616109038722</v>
+        <v>0.1600443031007956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.394565</v>
+        <v>0.9342596666666667</v>
       </c>
       <c r="H8">
-        <v>40.183695</v>
+        <v>2.802779</v>
       </c>
       <c r="I8">
-        <v>0.1396563999005869</v>
+        <v>0.1821686446598085</v>
       </c>
       <c r="J8">
-        <v>0.1396563999005868</v>
+        <v>0.1821686446598085</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.807091</v>
+        <v>4.685980666666667</v>
       </c>
       <c r="N8">
-        <v>23.421273</v>
+        <v>14.057942</v>
       </c>
       <c r="O8">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="P8">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="Q8">
-        <v>104.572587860415</v>
+        <v>4.377922735646445</v>
       </c>
       <c r="R8">
-        <v>941.1532907437349</v>
+        <v>39.401304620818</v>
       </c>
       <c r="S8">
-        <v>0.04375891668055852</v>
+        <v>0.0378087800682452</v>
       </c>
       <c r="T8">
-        <v>0.04375891668055851</v>
+        <v>0.03780878006824521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.394565</v>
+        <v>0.9342596666666667</v>
       </c>
       <c r="H9">
-        <v>40.183695</v>
+        <v>2.802779</v>
       </c>
       <c r="I9">
-        <v>0.1396563999005869</v>
+        <v>0.1821686446598085</v>
       </c>
       <c r="J9">
-        <v>0.1396563999005868</v>
+        <v>0.1821686446598085</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>38.101943</v>
       </c>
       <c r="O9">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="P9">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="Q9">
-        <v>170.119650713265</v>
+        <v>11.86570285551078</v>
       </c>
       <c r="R9">
-        <v>1531.076856419385</v>
+        <v>106.791325699597</v>
       </c>
       <c r="S9">
-        <v>0.07118740937370868</v>
+        <v>0.1024750267898256</v>
       </c>
       <c r="T9">
-        <v>0.07118740937370867</v>
+        <v>0.1024750267898256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.394565</v>
+        <v>0.9342596666666667</v>
       </c>
       <c r="H10">
-        <v>40.183695</v>
+        <v>2.802779</v>
       </c>
       <c r="I10">
-        <v>0.1396563999005869</v>
+        <v>0.1821686446598085</v>
       </c>
       <c r="J10">
-        <v>0.1396563999005868</v>
+        <v>0.1821686446598085</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.408559666666666</v>
+        <v>5.191163</v>
       </c>
       <c r="N10">
-        <v>13.225679</v>
+        <v>15.573489</v>
       </c>
       <c r="O10">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="P10">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="Q10">
-        <v>59.05073901154499</v>
+        <v>4.849894213992333</v>
       </c>
       <c r="R10">
-        <v>531.456651103905</v>
+        <v>43.649047925931</v>
       </c>
       <c r="S10">
-        <v>0.02471007384631965</v>
+        <v>0.04188483780173768</v>
       </c>
       <c r="T10">
-        <v>0.02471007384631965</v>
+        <v>0.04188483780173768</v>
       </c>
     </row>
   </sheetData>
